--- a/OTRAS_ENG - York/data/supervision.xlsx
+++ b/OTRAS_ENG - York/data/supervision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\OTRAS_ENG - York\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF33BBC5-BEE4-439C-B618-9D7D2C69F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41489849-F7C6-4780-9945-17C9EF5FE7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>what</t>
   </si>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,127 +1163,133 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
